--- a/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Analysis_Validation_UR.xlsx
+++ b/src/Pickles/MIL_pickles/Output/AN180_TestScript_Desktop_Analysis_Validation_UR.xlsx
@@ -16,9 +16,8 @@
     <x:sheet name="IMAGEEXPORT" sheetId="9" r:id="rId9"/>
     <x:sheet name="MAGNIFYIMAGE" sheetId="10" r:id="rId10"/>
     <x:sheet name="REPOSITIONCARIESROI" sheetId="11" r:id="rId11"/>
-    <x:sheet name="SEEWHATSNEW" sheetId="12" r:id="rId12"/>
-    <x:sheet name="SHOWPROGRESS" sheetId="13" r:id="rId13"/>
-    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="14" r:id="rId14"/>
+    <x:sheet name="SHOWPROGRESS" sheetId="12" r:id="rId12"/>
+    <x:sheet name="TOGGLEANNOTATIONVISIBILITY" sheetId="13" r:id="rId13"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <x:si>
     <x:t>AddCariesROI</x:t>
   </x:si>
@@ -338,65 +337,6 @@
   </x:si>
   <x:si>
     <x:t>the caries ROIs direction is flipped horizontally</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeWhatsNew</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR, @UR027, @DesktopOnly, @Analysis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>As a user
-I want to be made aware of new features 
-So that I know what's changed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeNewFeaturesOnStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have not dismissed the news for the version installed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I start AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features are displayed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>StopSeeingNewFeatures</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I dismiss the new features dispay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I restart AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AssistDent restarts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>the new features are not dismissed</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SeeNewFeaturesAfterStartup</x:t>
-  </x:si>
-  <x:si>
-    <x:t>@UR027-3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I have started AssistDent</x:t>
-  </x:si>
-  <x:si>
-    <x:t>I access the see all whats new features</x:t>
-  </x:si>
-  <x:si>
-    <x:t>all the features are displayed</x:t>
   </x:si>
   <x:si>
     <x:t>ShowProgress</x:t>
@@ -863,7 +803,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:B13"/>
+  <x:dimension ref="A1:B12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -871,7 +811,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:2">
       <x:c r="A1" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>117</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
@@ -926,12 +866,7 @@
     </x:row>
     <x:row r="12" spans="1:2">
       <x:c r="B12" s="4" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:2">
-      <x:c r="B13" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -945,9 +880,8 @@
     <x:hyperlink ref="B8" location="'IMAGEEXPORT'!A1" display="ImageExport"/>
     <x:hyperlink ref="B9" location="'MAGNIFYIMAGE'!A1" display="MagnifyImage"/>
     <x:hyperlink ref="B10" location="'REPOSITIONCARIESROI'!A1" display="RepositionCariesROI"/>
-    <x:hyperlink ref="B11" location="'SEEWHATSNEW'!A1" display="SeeWhatsNew"/>
-    <x:hyperlink ref="B12" location="'SHOWPROGRESS'!A1" display="ShowProgress"/>
-    <x:hyperlink ref="B13" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
+    <x:hyperlink ref="B11" location="'SHOWPROGRESS'!A1" display="ShowProgress"/>
+    <x:hyperlink ref="B12" location="'TOGGLEANNOTATIONVISIBILITY'!A1" display="ToggleAnnotationVisibility"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -2024,7 +1958,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D28"/>
+  <x:dimension ref="A1:D9"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -2064,7 +1998,7 @@
     <x:row r="7" spans="1:4"/>
     <x:row r="8" spans="1:4">
       <x:c r="C8" s="3" t="s">
-        <x:v>5</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
         <x:v>103</x:v>
@@ -2072,126 +2006,10 @@
     </x:row>
     <x:row r="9" spans="1:4">
       <x:c r="C9" s="3" t="s">
-        <x:v>7</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>104</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:4">
-      <x:c r="C10" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:4">
-      <x:c r="B12" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:4">
-      <x:c r="B13" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:4"/>
-    <x:row r="15" spans="1:4">
-      <x:c r="C15" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>103</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:4">
-      <x:c r="C16" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D16" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:4">
-      <x:c r="C17" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:4">
-      <x:c r="C18" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>108</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:4">
-      <x:c r="C19" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>109</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:4">
-      <x:c r="C20" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>110</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:4">
-      <x:c r="C21" s="3" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>111</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:4">
-      <x:c r="B23" s="1" t="s">
-        <x:v>112</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:4">
-      <x:c r="B24" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:4"/>
-    <x:row r="26" spans="1:4">
-      <x:c r="C26" s="3" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>114</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:4">
-      <x:c r="C27" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>115</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:4">
-      <x:c r="C28" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>116</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2208,74 +2026,6 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D9"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:4">
-      <x:c r="A1" s="1" t="s">
-        <x:v>117</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:4">
-      <x:c r="B2" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C2" s="2" t="s">
-        <x:v>118</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:4">
-      <x:c r="B3" s="0" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:4">
-      <x:c r="B5" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:4">
-      <x:c r="B6" s="2" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>121</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:4"/>
-    <x:row r="8" spans="1:4">
-      <x:c r="C8" s="3" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>122</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:4">
-      <x:c r="C9" s="3" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="0"/>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheetd.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
   <x:dimension ref="A1:D20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
@@ -2284,7 +2034,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:4">
       <x:c r="A1" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>105</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
@@ -2292,17 +2042,17 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
       <x:c r="B3" s="0" t="s">
-        <x:v>126</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="B5" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>108</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -2310,7 +2060,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C6" s="2" t="s">
-        <x:v>128</x:v>
+        <x:v>109</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4"/>
@@ -2335,7 +2085,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>129</x:v>
+        <x:v>110</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -2343,12 +2093,12 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>130</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="B13" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>112</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:4">
@@ -2356,7 +2106,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C14" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>113</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:4"/>
@@ -2381,7 +2131,7 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="D18" s="0" t="s">
-        <x:v>133</x:v>
+        <x:v>114</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:4">
@@ -2389,7 +2139,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="D19" s="0" t="s">
-        <x:v>134</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:4">
@@ -2397,7 +2147,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>135</x:v>
+        <x:v>116</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
